--- a/Results/signif_TH-vTH+.xlsx
+++ b/Results/signif_TH-vTH+.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/42fecc4a25d0b8d0/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6179A22-84C2-4D1A-9B9A-7902798B105F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{F6179A22-84C2-4D1A-9B9A-7902798B105F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0239DA75-359D-4392-952E-F09876E08463}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{86230965-2637-4A9A-97AF-A3B55E1CFB58}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="67">
   <si>
     <t>baseMean</t>
   </si>
@@ -113,30 +113,6 @@
     <t>Gene</t>
   </si>
   <si>
-    <t>Pyrioxidine is the 4-methol version of vitamin B6, and its synthesis increases in the absence of thiamine (vitamin B).</t>
-  </si>
-  <si>
-    <t>The synthesis of pyridoxal 5'-phosphate (PLP), the active form of vitamin B6, increases in the absence of thiamine.</t>
-  </si>
-  <si>
-    <t>The transcription of THI20, which adds phosphate groups to pyrimidines and breaks down thiamine, increases in the absence of thiamine.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This enzyme is important to making thiamine precurors </t>
-  </si>
-  <si>
-    <t xml:space="preserve">This enzyme makes thiamine diphosphates and increases its trnascription in the absence of thiamine. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thiamine is a thiazole linked to a pyridimine, and the transcription of THI4 which makes thiamine thiazole increases in the absence of thiamine. </t>
-  </si>
-  <si>
-    <t>This enzyme makes HMP-P, which is an important precursor of TPP synthesis, which is a form of vitamine B.</t>
-  </si>
-  <si>
-    <t>Miotic spindle protein</t>
-  </si>
-  <si>
     <t>NCBI Gene ID</t>
   </si>
   <si>
@@ -173,12 +149,6 @@
     <t>Annotation</t>
   </si>
   <si>
-    <t>Candida genome notes interpretation:</t>
-  </si>
-  <si>
-    <t>Give info here about what the protein does- don't need to talk about change in thiamine yet</t>
-  </si>
-  <si>
     <t>GeneID:</t>
   </si>
   <si>
@@ -219,6 +189,39 @@
   </si>
   <si>
     <t>GeneID:3641902</t>
+  </si>
+  <si>
+    <t>Stationary phase protein; vitamin B synthesis; induced byyeast-hypha switch, 3-AT or in azole-resistant strain overexpressing MDR1; soluble in hyphae; regulated by Gcn4, macrophage; Spider biofilm induced; rat catheter biofilm repressed. Notes: pyrioxidine is the 4-methol version of vitamin B6.</t>
+  </si>
+  <si>
+    <t>Protein with a predicted role in pyridoxine metabolism; stationary phase protein; regulated by Tup1, Efg1; Spider biofilm induced. Notes: Pyridoxal 5'-phosphate (PLP) is the active form of vitamin B6.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Candida genome database description and notes </t>
+  </si>
+  <si>
+    <t>Putative trifunctional enzyme of thiamine biosynthesis, degradation and salvage; Spider biofilm induced. Notes: THI20 adds phosphate groups to pyrimidines and breaks down thiamine.</t>
+  </si>
+  <si>
+    <t>Putative farnesyl pyrophosphate synthetase involved in isoprenoid and sterol biosynthesis, based on similarity to S. cerevisiae Erg20p; likely to be essential for growth, based on an insertional mutagenesis strategy. Notes: This enzyme is important to making thiamine precurors.</t>
+  </si>
+  <si>
+    <t>Putative thiamin-phosphate pyrophosphorylase, hydroxyethylthiazole kinase; fungal-specific; Spider biofilm induced. Notes: This enzyme makes thiamine diphosphates.</t>
+  </si>
+  <si>
+    <t>None: uncharacterized.</t>
+  </si>
+  <si>
+    <t>Thiamine biosynthetic enzyme precursor; repressed during the mating process; stationary phase enriched protein; Spider biofilm induced. Notes: Thiamine is a thiazole linked to a pyridimine.</t>
+  </si>
+  <si>
+    <t>Subunit of the Dam1 (DASH) complex, which acts in chromosome segregation by coupling kinetochores to spindle microtubules . Notes: Miotic spindle protein</t>
+  </si>
+  <si>
+    <t>Thiamin pyrimidine synthase; synthesis of the thiamine precursor hydroxymethylpyrimidine phosphate; single-turnover enzyme that provides histidine for HMP-P formation; induced by nitric oxide independent of Yhb1; Spider biofilm induced. NotesL This enzyme makes HMP-P, which is an important precursor of TPP synthesis, which is a form of vitamine B.</t>
+  </si>
+  <si>
+    <t>Putative transporter; more similar to S. cerevisiae Tpn1, which is a vitamin B6 transporter, than to purine-cytosine permeases; transcription is regulated by Nrg1; Spider biofilm induced. Notes: possible role in Vitamin B transport.</t>
   </si>
 </sst>
 </file>
@@ -1080,10 +1083,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D00C808-EFA9-4A13-B2D6-47084ECFF498}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1102,13 +1105,13 @@
         <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
         <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -1126,18 +1129,18 @@
         <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -1158,7 +1161,7 @@
         <v>2.5653266238219699E-22</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -1166,10 +1169,10 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -1190,7 +1193,7 @@
         <v>5.7874182650918804E-4</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -1198,10 +1201,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -1222,7 +1225,7 @@
         <v>1.12286380597114E-82</v>
       </c>
       <c r="J4" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -1230,10 +1233,10 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -1254,7 +1257,7 @@
         <v>1.5278518506927899E-7</v>
       </c>
       <c r="J5" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -1262,10 +1265,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -1286,7 +1289,7 @@
         <v>3.3606106573251102E-119</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -1294,10 +1297,10 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -1316,6 +1319,9 @@
       </c>
       <c r="I7">
         <v>3.1365133691692602E-2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -1323,10 +1329,10 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
@@ -1347,7 +1353,7 @@
         <v>4.1927164037138898E-108</v>
       </c>
       <c r="J8" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -1355,10 +1361,10 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -1379,7 +1385,7 @@
         <v>8.4146336719068705E-10</v>
       </c>
       <c r="J9" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -1387,10 +1393,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
@@ -1409,6 +1415,9 @@
       </c>
       <c r="I10" s="1">
         <v>2.34711782253836E-138</v>
+      </c>
+      <c r="J10" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -1416,10 +1425,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
@@ -1438,6 +1447,9 @@
       </c>
       <c r="I11" s="1">
         <v>2.2862979455992301E-83</v>
+      </c>
+      <c r="J11" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
@@ -1445,10 +1457,10 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
@@ -1469,7 +1481,7 @@
         <v>1.29007410261007E-76</v>
       </c>
       <c r="J12" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
@@ -1477,10 +1489,10 @@
         <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
@@ -1499,6 +1511,9 @@
       </c>
       <c r="I13" s="1">
         <v>1.2619990681144001E-125</v>
+      </c>
+      <c r="J13" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -1506,10 +1521,10 @@
         <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
         <v>27</v>
@@ -1529,10 +1544,8 @@
       <c r="I14" s="1">
         <v>2.6316343662844298E-35</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="J15" t="s">
-        <v>51</v>
+      <c r="J14" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1555,15 +1568,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B2">
         <v>3636803</v>
@@ -1571,7 +1584,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>3636812</v>
@@ -1579,7 +1592,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B4">
         <v>3637387</v>
@@ -1587,7 +1600,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>3645440</v>
@@ -1595,7 +1608,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>3638333</v>
@@ -1603,7 +1616,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B7">
         <v>3638334</v>
@@ -1611,7 +1624,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>3635160</v>
@@ -1619,7 +1632,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B9">
         <v>3646858</v>
@@ -1627,7 +1640,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B10">
         <v>3646857</v>
@@ -1635,7 +1648,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B11">
         <v>3646965</v>
@@ -1643,7 +1656,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B12">
         <v>3641921</v>
@@ -1651,7 +1664,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B13">
         <v>3641901</v>
@@ -1659,7 +1672,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B14">
         <v>3641902</v>
